--- a/src/main/resources/excel-template/template_invoice.xlsx
+++ b/src/main/resources/excel-template/template_invoice.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\kimpoziben\src\main\resources\excel-template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E15BB-B3B2-45F1-BEE7-5C9C676DC77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24270" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="견적서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>jsh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,14 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${data.seqProuct}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.seqSize}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.amountOrder}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,13 +253,21 @@
   </si>
   <si>
     <t>성    명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.nmSize}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.nmProduct}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
@@ -1019,31 +1013,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,6 +1031,21 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,7 +1055,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,15 +1073,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1097,23 +1082,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,44 +1166,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,254 +1481,254 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="3.19921875" style="1"/>
-    <col min="3" max="3" width="4.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="3.25" style="1"/>
+    <col min="3" max="3" width="4.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.19921875" style="1"/>
+    <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="10.050000000000001" customHeight="1">
+    <row r="1" spans="1:12" ht="10.15" customHeight="1">
       <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:12" ht="30.05" customHeight="1">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="49" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
-      <c r="B6" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="52" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="B7" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="55" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
-      <c r="B9" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="70" t="s">
+      <c r="B9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="30" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:12" ht="5.05" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="39"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="1.9" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1">
+      <c r="B13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="1.9" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1">
-      <c r="B13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="3" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="G15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="33"/>
       <c r="I15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1748,69 +1742,69 @@
     <row r="16" spans="1:12" ht="18" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="J16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="2.4500000000000002" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1">
+      <c r="B18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1">
+      <c r="B19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="2.5" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1">
-      <c r="B18" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1">
-      <c r="B19" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1">
       <c r="K23" s="10"/>
@@ -1830,23 +1824,23 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.34722222222222221" right="0.20833333333333334" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
